--- a/RecoveredDatabase.xlsx
+++ b/RecoveredDatabase.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sman9\Desktop\Git Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13410" windowHeight="8055"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8055" windowWidth="13410" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Beersheba" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lod" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt formatCode="DD-MM-YYYY" numFmtId="164"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,24 +47,85 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,15 +391,935 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Firstname</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Lastname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Occupation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Birth date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Test date</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" s="1" t="n"/>
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="D3" s="1" t="n"/>
+      <c r="F3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="D4" s="1" t="n"/>
+      <c r="F4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="D5" s="1" t="n"/>
+      <c r="F5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="1" t="n"/>
+      <c r="F6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="1" t="n"/>
+      <c r="F7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="1" t="n"/>
+      <c r="F8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="1" t="n"/>
+      <c r="F9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="1" t="n"/>
+      <c r="F10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="1" t="n"/>
+      <c r="F11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="1" t="n"/>
+      <c r="F12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="1" t="n"/>
+      <c r="F13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="1" t="n"/>
+      <c r="F14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="1" t="n"/>
+      <c r="F15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="1" t="n"/>
+      <c r="F16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="1" t="n"/>
+      <c r="F17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="1" t="n"/>
+      <c r="F18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="1" t="n"/>
+      <c r="F19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="1" t="n"/>
+      <c r="F20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="1" t="n"/>
+      <c r="F21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="1" t="n"/>
+      <c r="F22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="1" t="n"/>
+      <c r="F23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="1" t="n"/>
+      <c r="F24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="1" t="n"/>
+      <c r="F25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="1" t="n"/>
+      <c r="F26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="1" t="n"/>
+      <c r="F27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="1" t="n"/>
+      <c r="F28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="1" t="n"/>
+      <c r="F29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="1" t="n"/>
+      <c r="F30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="1" t="n"/>
+      <c r="F31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="D32" s="1" t="n"/>
+      <c r="F32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="1" t="n"/>
+      <c r="F33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="1" t="n"/>
+      <c r="F34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="1" t="n"/>
+      <c r="F35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="1" t="n"/>
+      <c r="F36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="1" t="n"/>
+      <c r="F37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="1" t="n"/>
+      <c r="F38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="1" t="n"/>
+      <c r="F39" s="2" t="n"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="1" t="n"/>
+      <c r="F40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="1" t="n"/>
+      <c r="F41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="1" t="n"/>
+      <c r="F42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="1" t="n"/>
+      <c r="F43" s="2" t="n"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="1" t="n"/>
+      <c r="F44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="1" t="n"/>
+      <c r="F45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="1" t="n"/>
+      <c r="F46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="1" t="n"/>
+      <c r="F47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="1" t="n"/>
+      <c r="F48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="1" t="n"/>
+      <c r="F49" s="2" t="n"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="1" t="n"/>
+      <c r="F50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="1" t="n"/>
+      <c r="F51" s="2" t="n"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="1" t="n"/>
+      <c r="F52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="1" t="n"/>
+      <c r="F53" s="2" t="n"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="1" t="n"/>
+      <c r="F54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="1" t="n"/>
+      <c r="F55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="1" t="n"/>
+      <c r="F56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="1" t="n"/>
+      <c r="F57" s="2" t="n"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="1" t="n"/>
+      <c r="F58" s="2" t="n"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="1" t="n"/>
+      <c r="F59" s="2" t="n"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="1" t="n"/>
+      <c r="F60" s="2" t="n"/>
+    </row>
+    <row r="61">
+      <c r="D61" s="1" t="n"/>
+      <c r="F61" s="2" t="n"/>
+    </row>
+    <row r="62">
+      <c r="D62" s="1" t="n"/>
+      <c r="F62" s="2" t="n"/>
+    </row>
+    <row r="63">
+      <c r="D63" s="1" t="n"/>
+      <c r="F63" s="2" t="n"/>
+    </row>
+    <row r="64">
+      <c r="D64" s="1" t="n"/>
+      <c r="F64" s="2" t="n"/>
+    </row>
+    <row r="65">
+      <c r="D65" s="1" t="n"/>
+      <c r="F65" s="2" t="n"/>
+    </row>
+    <row r="66">
+      <c r="D66" s="1" t="n"/>
+      <c r="F66" s="2" t="n"/>
+    </row>
+    <row r="67">
+      <c r="D67" s="1" t="n"/>
+      <c r="F67" s="2" t="n"/>
+    </row>
+    <row r="68">
+      <c r="D68" s="1" t="n"/>
+      <c r="F68" s="2" t="n"/>
+    </row>
+    <row r="69">
+      <c r="D69" s="1" t="n"/>
+      <c r="F69" s="2" t="n"/>
+    </row>
+    <row r="70">
+      <c r="D70" s="1" t="n"/>
+      <c r="F70" s="2" t="n"/>
+    </row>
+    <row r="71">
+      <c r="D71" s="1" t="n"/>
+      <c r="F71" s="2" t="n"/>
+    </row>
+    <row r="72">
+      <c r="D72" s="1" t="n"/>
+      <c r="F72" s="2" t="n"/>
+    </row>
+    <row r="73">
+      <c r="D73" s="1" t="n"/>
+      <c r="F73" s="2" t="n"/>
+    </row>
+    <row r="74">
+      <c r="D74" s="1" t="n"/>
+      <c r="F74" s="2" t="n"/>
+    </row>
+    <row r="75">
+      <c r="D75" s="1" t="n"/>
+      <c r="F75" s="2" t="n"/>
+    </row>
+    <row r="76">
+      <c r="D76" s="1" t="n"/>
+      <c r="F76" s="2" t="n"/>
+    </row>
+    <row r="77">
+      <c r="D77" s="1" t="n"/>
+      <c r="F77" s="2" t="n"/>
+    </row>
+    <row r="78">
+      <c r="D78" s="1" t="n"/>
+      <c r="F78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="D79" s="1" t="n"/>
+      <c r="F79" s="2" t="n"/>
+    </row>
+    <row r="80">
+      <c r="D80" s="1" t="n"/>
+      <c r="F80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="D81" s="1" t="n"/>
+      <c r="F81" s="2" t="n"/>
+    </row>
+    <row r="82">
+      <c r="D82" s="1" t="n"/>
+      <c r="F82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="D83" s="1" t="n"/>
+      <c r="F83" s="2" t="n"/>
+    </row>
+    <row r="84">
+      <c r="D84" s="1" t="n"/>
+      <c r="F84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="D85" s="1" t="n"/>
+      <c r="F85" s="2" t="n"/>
+    </row>
+    <row r="86">
+      <c r="D86" s="1" t="n"/>
+      <c r="F86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="D87" s="1" t="n"/>
+      <c r="F87" s="2" t="n"/>
+    </row>
+    <row r="88">
+      <c r="D88" s="1" t="n"/>
+      <c r="F88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="D89" s="1" t="n"/>
+      <c r="F89" s="2" t="n"/>
+    </row>
+    <row r="90">
+      <c r="D90" s="1" t="n"/>
+      <c r="F90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="D91" s="1" t="n"/>
+      <c r="F91" s="2" t="n"/>
+    </row>
+    <row r="92">
+      <c r="D92" s="1" t="n"/>
+      <c r="F92" s="2" t="n"/>
+    </row>
+    <row r="93">
+      <c r="D93" s="1" t="n"/>
+      <c r="F93" s="2" t="n"/>
+    </row>
+    <row r="94">
+      <c r="D94" s="1" t="n"/>
+      <c r="F94" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="D95" s="1" t="n"/>
+      <c r="F95" s="2" t="n"/>
+    </row>
+    <row r="96">
+      <c r="D96" s="1" t="n"/>
+      <c r="F96" s="2" t="n"/>
+    </row>
+    <row r="97">
+      <c r="D97" s="1" t="n"/>
+      <c r="F97" s="2" t="n"/>
+    </row>
+    <row r="98">
+      <c r="D98" s="1" t="n"/>
+      <c r="F98" s="2" t="n"/>
+    </row>
+    <row r="99">
+      <c r="D99" s="1" t="n"/>
+      <c r="F99" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Firstname</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Lastname</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Occupation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Birth date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Test date</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" s="1" t="n"/>
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="D3" s="1" t="n"/>
+      <c r="F3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="D4" s="1" t="n"/>
+      <c r="F4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="D5" s="1" t="n"/>
+      <c r="F5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="D6" s="1" t="n"/>
+      <c r="F6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="1" t="n"/>
+      <c r="F7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="D8" s="1" t="n"/>
+      <c r="F8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="D9" s="1" t="n"/>
+      <c r="F9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="D10" s="1" t="n"/>
+      <c r="F10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="D11" s="1" t="n"/>
+      <c r="F11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="D12" s="1" t="n"/>
+      <c r="F12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="D13" s="1" t="n"/>
+      <c r="F13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="D14" s="1" t="n"/>
+      <c r="F14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="D15" s="1" t="n"/>
+      <c r="F15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="D16" s="1" t="n"/>
+      <c r="F16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="D17" s="1" t="n"/>
+      <c r="F17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="D18" s="1" t="n"/>
+      <c r="F18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="1" t="n"/>
+      <c r="F19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="1" t="n"/>
+      <c r="F20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="D21" s="1" t="n"/>
+      <c r="F21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="D22" s="1" t="n"/>
+      <c r="F22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="1" t="n"/>
+      <c r="F23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="1" t="n"/>
+      <c r="F24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="1" t="n"/>
+      <c r="F25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="D26" s="1" t="n"/>
+      <c r="F26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="D27" s="1" t="n"/>
+      <c r="F27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="D28" s="1" t="n"/>
+      <c r="F28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="D29" s="1" t="n"/>
+      <c r="F29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="D30" s="1" t="n"/>
+      <c r="F30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="1" t="n"/>
+      <c r="F31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="D32" s="1" t="n"/>
+      <c r="F32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="1" t="n"/>
+      <c r="F33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="1" t="n"/>
+      <c r="F34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="1" t="n"/>
+      <c r="F35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="1" t="n"/>
+      <c r="F36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="1" t="n"/>
+      <c r="F37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="1" t="n"/>
+      <c r="F38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="1" t="n"/>
+      <c r="F39" s="2" t="n"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="1" t="n"/>
+      <c r="F40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="1" t="n"/>
+      <c r="F41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="1" t="n"/>
+      <c r="F42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="1" t="n"/>
+      <c r="F43" s="2" t="n"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="1" t="n"/>
+      <c r="F44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="1" t="n"/>
+      <c r="F45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="1" t="n"/>
+      <c r="F46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="1" t="n"/>
+      <c r="F47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="1" t="n"/>
+      <c r="F48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="1" t="n"/>
+      <c r="F49" s="2" t="n"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="1" t="n"/>
+      <c r="F50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="1" t="n"/>
+      <c r="F51" s="2" t="n"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="1" t="n"/>
+      <c r="F52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="1" t="n"/>
+      <c r="F53" s="2" t="n"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="1" t="n"/>
+      <c r="F54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="1" t="n"/>
+      <c r="F55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="1" t="n"/>
+      <c r="F56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="1" t="n"/>
+      <c r="F57" s="2" t="n"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="1" t="n"/>
+      <c r="F58" s="2" t="n"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="1" t="n"/>
+      <c r="F59" s="2" t="n"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="1" t="n"/>
+      <c r="F60" s="2" t="n"/>
+    </row>
+    <row r="61">
+      <c r="D61" s="1" t="n"/>
+      <c r="F61" s="2" t="n"/>
+    </row>
+    <row r="62">
+      <c r="D62" s="1" t="n"/>
+      <c r="F62" s="2" t="n"/>
+    </row>
+    <row r="63">
+      <c r="D63" s="1" t="n"/>
+      <c r="F63" s="2" t="n"/>
+    </row>
+    <row r="64">
+      <c r="D64" s="1" t="n"/>
+      <c r="F64" s="2" t="n"/>
+    </row>
+    <row r="65">
+      <c r="D65" s="1" t="n"/>
+      <c r="F65" s="2" t="n"/>
+    </row>
+    <row r="66">
+      <c r="D66" s="1" t="n"/>
+      <c r="F66" s="2" t="n"/>
+    </row>
+    <row r="67">
+      <c r="D67" s="1" t="n"/>
+      <c r="F67" s="2" t="n"/>
+    </row>
+    <row r="68">
+      <c r="D68" s="1" t="n"/>
+      <c r="F68" s="2" t="n"/>
+    </row>
+    <row r="69">
+      <c r="D69" s="1" t="n"/>
+      <c r="F69" s="2" t="n"/>
+    </row>
+    <row r="70">
+      <c r="D70" s="1" t="n"/>
+      <c r="F70" s="2" t="n"/>
+    </row>
+    <row r="71">
+      <c r="D71" s="1" t="n"/>
+      <c r="F71" s="2" t="n"/>
+    </row>
+    <row r="72">
+      <c r="D72" s="1" t="n"/>
+      <c r="F72" s="2" t="n"/>
+    </row>
+    <row r="73">
+      <c r="D73" s="1" t="n"/>
+      <c r="F73" s="2" t="n"/>
+    </row>
+    <row r="74">
+      <c r="D74" s="1" t="n"/>
+      <c r="F74" s="2" t="n"/>
+    </row>
+    <row r="75">
+      <c r="D75" s="1" t="n"/>
+      <c r="F75" s="2" t="n"/>
+    </row>
+    <row r="76">
+      <c r="D76" s="1" t="n"/>
+      <c r="F76" s="2" t="n"/>
+    </row>
+    <row r="77">
+      <c r="D77" s="1" t="n"/>
+      <c r="F77" s="2" t="n"/>
+    </row>
+    <row r="78">
+      <c r="D78" s="1" t="n"/>
+      <c r="F78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="D79" s="1" t="n"/>
+      <c r="F79" s="2" t="n"/>
+    </row>
+    <row r="80">
+      <c r="D80" s="1" t="n"/>
+      <c r="F80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="D81" s="1" t="n"/>
+      <c r="F81" s="2" t="n"/>
+    </row>
+    <row r="82">
+      <c r="D82" s="1" t="n"/>
+      <c r="F82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="D83" s="1" t="n"/>
+      <c r="F83" s="2" t="n"/>
+    </row>
+    <row r="84">
+      <c r="D84" s="1" t="n"/>
+      <c r="F84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="D85" s="1" t="n"/>
+      <c r="F85" s="2" t="n"/>
+    </row>
+    <row r="86">
+      <c r="D86" s="1" t="n"/>
+      <c r="F86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="D87" s="1" t="n"/>
+      <c r="F87" s="2" t="n"/>
+    </row>
+    <row r="88">
+      <c r="D88" s="1" t="n"/>
+      <c r="F88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="D89" s="1" t="n"/>
+      <c r="F89" s="2" t="n"/>
+    </row>
+    <row r="90">
+      <c r="D90" s="1" t="n"/>
+      <c r="F90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="D91" s="1" t="n"/>
+      <c r="F91" s="2" t="n"/>
+    </row>
+    <row r="92">
+      <c r="D92" s="1" t="n"/>
+      <c r="F92" s="2" t="n"/>
+    </row>
+    <row r="93">
+      <c r="D93" s="1" t="n"/>
+      <c r="F93" s="2" t="n"/>
+    </row>
+    <row r="94">
+      <c r="D94" s="1" t="n"/>
+      <c r="F94" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="D95" s="1" t="n"/>
+      <c r="F95" s="2" t="n"/>
+    </row>
+    <row r="96">
+      <c r="D96" s="1" t="n"/>
+      <c r="F96" s="2" t="n"/>
+    </row>
+    <row r="97">
+      <c r="D97" s="1" t="n"/>
+      <c r="F97" s="2" t="n"/>
+    </row>
+    <row r="98">
+      <c r="D98" s="1" t="n"/>
+      <c r="F98" s="2" t="n"/>
+    </row>
+    <row r="99">
+      <c r="D99" s="1" t="n"/>
+      <c r="F99" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>